--- a/zosma/test/module_test.xlsx
+++ b/zosma/test/module_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -52,6 +52,228 @@
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InputChecker.checkDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InputChecker.checkPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date: '1000-01-01'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price: 100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPClient.getAccounts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPClient.getAccounts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  account_type: 'income'
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[
+  {
+    account_type: 'income',
+    date: '1000-01-01',
+    content: 'モジュールテスト用データ',
+    category: 'モジュールテスト',
+    price: 100
+  }
+]</t>
+    <rPh sb="80" eb="81">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の家計簿が登録されている
+{
+  account_type: 'income',
+  date: '1000-01-01',
+  content: 'モジュールテスト用データ',
+  category: 'モジュールテスト',
+  price: 100
+}</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  date: '1000-01-01'
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  content: 'モジュールテスト用データ'
+}</t>
+    <rPh sb="33" eb="34">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  category: 'モジュールテスト'
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  price: 100
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  date: '1000-01-01'
+  price: 100
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InputChecker.checkDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date: 'invalid_date'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date: '01-01-1000'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InputChecker.checkPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price: -100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InputChecker.checkPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price: 0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date: '1000-13-01'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date: '1000-01-00'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date: '1000-00-01'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPClient.getAccounts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  account_type: 'invalid_type'
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  date: 'invalid_date'
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  price: -100
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  account_type: 'invalid_type',
+  date: 'invalid_date',
+  price: -100
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[
+  {error_code: 'invalid_value_account_type'}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[
+  {error_code: 'invalid_value_account_date'}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[
+  {error_code: 'invalid_value_account_price'}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[
+  {error_code: 'invalid_value_account_type'},
+  {error_code: 'invalid_value_date'},
+  {error_code: 'invalid_value_price'},
+]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -108,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -353,8 +575,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="191">
+  <cellStyleXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -546,8 +781,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -575,9 +836,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -602,8 +860,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="191">
+  <cellStyles count="217">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -699,6 +972,19 @@
     <cellStyle name="ハイパーリンク" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -795,6 +1081,19 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="216" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1123,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1165,34 +1464,174 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="2:7" ht="19" thickBot="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="G4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="122">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="122">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="122">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="122">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="122">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="122">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="123" thickBot="1">
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1208,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1244,72 +1683,162 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="2:7" ht="19" thickBot="1">
+      <c r="G9" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="44">
       <c r="B10" s="14"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="44">
+      <c r="B11" s="14"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="44">
+      <c r="B12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="71" thickBot="1">
+      <c r="B13" s="13"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/zosma/test/module_test.xlsx
+++ b/zosma/test/module_test.xlsx
@@ -1650,7 +1650,7 @@
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/zosma/test/module_test.xlsx
+++ b/zosma/test/module_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>HTTPClient.getAccounts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>condition: {
-  account_type: 'income'
-}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -226,12 +220,6 @@
   </si>
   <si>
     <t>condition: {
-  account_type: 'invalid_type'
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>condition: {
   date: 'invalid_date'
 }</t>
     <phoneticPr fontId="1"/>
@@ -243,8 +231,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>[
+  {error_code: 'invalid_value_account_date'}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[
+  {error_code: 'invalid_value_account_price'}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>condition: {
-  account_type: 'invalid_type',
   date: 'invalid_date',
   price: -100
 }</t>
@@ -252,25 +255,6 @@
   </si>
   <si>
     <t>[
-  {error_code: 'invalid_value_account_type'}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[
-  {error_code: 'invalid_value_account_date'}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[
-  {error_code: 'invalid_value_account_price'}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[
-  {error_code: 'invalid_value_account_type'},
   {error_code: 'invalid_value_date'},
   {error_code: 'invalid_value_price'},
 ]</t>
@@ -589,8 +573,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="217">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -876,7 +862,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="217">
+  <cellStyles count="219">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -985,6 +971,7 @@
     <cellStyle name="ハイパーリンク" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1094,6 +1081,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="218" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1422,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1472,7 +1460,7 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1490,7 +1478,7 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="122">
@@ -1504,13 +1492,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="122">
@@ -1527,10 +1515,10 @@
         <v>20</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="122">
@@ -1547,10 +1535,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="122">
@@ -1567,10 +1555,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="122">
@@ -1587,50 +1575,30 @@
         <v>23</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="123" thickBot="1">
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="122">
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="123" thickBot="1">
-      <c r="B11" s="13">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>18</v>
+      <c r="G10" s="22" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1690,154 +1658,176 @@
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="14"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="14"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="14"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="14"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="14"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="14">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="14"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="44">
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="44">
-      <c r="B10" s="14"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="44">
-      <c r="B11" s="14"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="58" thickBot="1">
+      <c r="B12" s="13">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="44">
-      <c r="B12" s="14"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="71" thickBot="1">
-      <c r="B13" s="13"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
